--- a/medicine/Sexualité et sexologie/Orgasmotron/Orgasmotron.xlsx
+++ b/medicine/Sexualité et sexologie/Orgasmotron/Orgasmotron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'orgasmotron, orgazmotron, orgasmatron ou encore Orgazmo rayon est une machine fictive qui est censée apporter un orgasme immédiat aux personnes qui l'utilisent.
 </t>
@@ -513,15 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbarella (1968)
-Inventée par le docteur Durand Durand, l'ennemi de Barbarella, cette machine appelée Excessive Machine provoque de plus en plus de plaisir au fur et à mesure qu'elle est utilisée jusqu'à faire mourir la personne par orgasme.
-Woody et les Robots (1973)
-C'est dans ce film de Woody Allen qu'apparaît pour la première fois le nom d'orgasmotron.
-Brainstorm (1983)
-Demolition Man (1993)
-Le lt. Lenina Huxley (Sandra Bullock) initie John Spartan (joué par Sylvester Stallone) à une sorte d'orgasmotron.
-Capitaine Orgazmo (1997)
-Le héros utilise cette arme pour faire régner la justice, habillé en super-héros.
+          <t>Barbarella (1968)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inventée par le docteur Durand Durand, l'ennemi de Barbarella, cette machine appelée Excessive Machine provoque de plus en plus de plaisir au fur et à mesure qu'elle est utilisée jusqu'à faire mourir la personne par orgasme.
 </t>
         </is>
       </c>
@@ -547,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>À la radio</t>
+          <t>Au cinéma</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orgasmotron est également le nom d'un jeu de Fun Radio qui était animé par Arthur lors de son émission matinale de septembre 1991 à juin 1992.
+          <t>Woody et les Robots (1973)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est dans ce film de Woody Allen qu'apparaît pour la première fois le nom d'orgasmotron.
 </t>
         </is>
       </c>
@@ -578,12 +594,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>En musique</t>
+          <t>Au cinéma</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le groupe Motörhead a sorti un album intitulé Orgasmatron en 1986. Sepultura reprend quelques années plus tard, la chanson qui a donné le nom à l'album. Cette chanson et cet album ne parlent pas directement d'une machine à orgasme.
+          <t>Demolition Man (1993)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lt. Lenina Huxley (Sandra Bullock) initie John Spartan (joué par Sylvester Stallone) à une sorte d'orgasmotron.
 </t>
         </is>
       </c>
@@ -609,12 +631,117 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Capitaine Orgazmo (1997)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le héros utilise cette arme pour faire régner la justice, habillé en super-héros.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Orgasmotron</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orgasmotron</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>À la radio</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orgasmotron est également le nom d'un jeu de Fun Radio qui était animé par Arthur lors de son émission matinale de septembre 1991 à juin 1992.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Orgasmotron</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orgasmotron</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>En musique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le groupe Motörhead a sorti un album intitulé Orgasmatron en 1986. Sepultura reprend quelques années plus tard, la chanson qui a donné le nom à l'album. Cette chanson et cet album ne parlent pas directement d'une machine à orgasme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Orgasmotron</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orgasmotron</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Dans la réalité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Orgasmatron est une marque déposée pour une machine qui effectue des massages au niveau de la tête[1].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orgasmatron est une marque déposée pour une machine qui effectue des massages au niveau de la tête.
 Des recherches ont été sérieusement effectuées pour inventer ce type de machine, principalement pour aider les femmes qui ne peuvent pas atteindre l'orgasme. Toutefois, l'implantation d'électrodes dans le cerveau[réf. nécessaire] à seul but ludique est éthiquement discutable.
 </t>
         </is>
